--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/NewFantasy/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/未命名文件夹/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52FD608-2267-0A45-A209-3BB230077D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9023A012-F88B-4640-A041-6FBE37850DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1686,10 +1686,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>MainThread</t>
-  </si>
-  <si>
     <t>Gate</t>
+  </si>
+  <si>
+    <t>MultiThread</t>
   </si>
 </sst>
 </file>
@@ -2277,8 +2277,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>37</v>
@@ -2525,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>28</v>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/未命名文件夹/Fantasy/Examples/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/New/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9023A012-F88B-4640-A041-6FBE37850DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C0B03C-59FA-7640-8164-44DC69B0313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,28 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>由于改表格使用了公式，所以不要改动列的位置。</t>
+          <t>由于改表格使用了公式。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>所以不要改动列的位置。</t>
         </r>
         <r>
           <rPr>
@@ -87,21 +108,324 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>不能超过</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>16383</t>
+          <t>计算规则</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Id</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>不能小于当前</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>WorldConfigId</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> * </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1000</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>+1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>2:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Id</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>不能大于当前</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>WorldConfigId</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> * </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1000</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>+255</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Id</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>必须在</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>和</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>条件之间。</t>
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{E5755CEB-C75E-B842-B2CB-BEFFDAB0EB3C}">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{72FE75FA-E0B5-7047-A79C-9EA5930146A7}">
       <text>
         <r>
           <rPr>
@@ -111,27 +435,27 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>根据</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ServerConfigId</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>和</t>
+          <t>Process</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Config</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>表的</t>
         </r>
         <r>
           <rPr>
@@ -151,11 +475,32 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>自动生成的，不要手动修改。</t>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>一个进程下有多少个</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Scene</t>
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{72FE75FA-E0B5-7047-A79C-9EA5930146A7}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{256F1D5C-1E43-7E43-93E8-867A899DFE62}">
       <text>
         <r>
           <rPr>
@@ -165,27 +510,37 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>ServerConfig</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>表的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Id
+          <t>关联</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>WorldConfig</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>表</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -196,7 +551,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>用于关联一个进程下有多少个</t>
+          <t>用于表示这个</t>
         </r>
         <r>
           <rPr>
@@ -207,10 +562,61 @@
             <charset val="1"/>
           </rPr>
           <t>Scene</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>属于哪个世界，</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fantasy</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>里的世界可以理解为游戏的一个区。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>这样就可以设置出一个进程下同时运行多个区，也是一个压缩服务器成本的一个手段</t>
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{256F1D5C-1E43-7E43-93E8-867A899DFE62}">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{9886606F-6C68-E54D-A4C0-1D6E97E30D2D}">
       <text>
         <r>
           <rPr>
@@ -220,27 +626,27 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>关联</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>WorldConfig</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>表</t>
+          <t>用于配置</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Scene</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>在框架中运行的方式：</t>
         </r>
         <r>
           <rPr>
@@ -257,11 +663,32 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>用于表示这个</t>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MainThread</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>设置</t>
         </r>
         <r>
           <rPr>
@@ -281,27 +708,117 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>属于哪个世界，</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Fantasy</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>里的世界可以理解为游戏的一个区。</t>
+          <t>在当前进程的主线程中运行、如果多个</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Scene</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>在同一个</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Process</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ConfigId</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>下，表示这些</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Scene</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>都是在同一个主线程中运行。如果想提升效率可以配置多个进程（也就是</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Process</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>）分别对应多个</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Scene</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>，这样设置就是多进程单线程的配置方法。</t>
         </r>
         <r>
           <rPr>
@@ -318,15 +835,288 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>这样就可以设置出一个进程下同时运行多个区，也是一个压缩服务器成本的一个手段</t>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MultiThread</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>设置</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Scene</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>为一个单独的线程执行、但需要注意的情况下，如果设置了</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ThreadPool</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>最好其他</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Scene</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>不要设置为</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>MultiThread</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>了，因为资源抢占的问题，如果这个</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Scene</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>不是一个长时间运行的可以不用考虑这个</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ThreadPool</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>根据当前服务器的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>CPU</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>核心数创建线程，</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Scene</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>会在这些线程中运行，这样的好处的避免了线程过多而出现的资源竞争的问题，这种配置非常适用于单服务器有多个进程的时候，改为一个进程多个</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Scene</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>。</t>
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{8DCCF1D3-077F-0D43-A686-5068A1D60820}">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{9A11BAE7-14DA-C243-8D3C-B1ED33D8BE47}">
       <text>
         <r>
           <rPr>
@@ -336,7 +1126,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>用于配置</t>
+          <t>用来表示这个</t>
         </r>
         <r>
           <rPr>
@@ -356,7 +1146,67 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>在框架中运行的方式：</t>
+          <t>是什么类型，这样可以在框架中的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>OnSceneCreate</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>的事件中根据</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SceneType</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>来添加不同的组件，而达到不同</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Scene</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>功能不一样的效果。</t>
         </r>
         <r>
           <rPr>
@@ -373,33 +1223,11 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>MainThread</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>设置</t>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>比如鉴权</t>
         </r>
         <r>
           <rPr>
@@ -419,7 +1247,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>在当前进程的主线程中运行、如果多个</t>
+          <t>和聊天</t>
         </r>
         <r>
           <rPr>
@@ -439,27 +1267,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>在同一个</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ServerConfigId</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>下，表示这些</t>
+          <t>、通过这个就可以知道当前这个</t>
         </r>
         <r>
           <rPr>
@@ -479,27 +1287,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>都是在同一个主线程中运行。如果想提升效率可以配置多个进程（也就是</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Server</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>）分别对应多个</t>
+          <t>是什么类型了，这样在创建的时候根据不同类型添加不同的组件就可以实现每个的</t>
         </r>
         <r>
           <rPr>
@@ -519,7 +1307,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>，这样设置就是多进程单线程的配置方法。</t>
+          <t>功能了。</t>
         </r>
         <r>
           <rPr>
@@ -536,71 +1324,104 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>MultiThread</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>根据当前服务器的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>CPU</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>核心数创建线程，</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>添加</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SceneType</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>需要在</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SceneTypeConfig</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>工作簿里增加，当前表格下面的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft Tai Le"/>
+            <family val="2"/>
+          </rPr>
+          <t>SceneTypeConfig</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>工作簿</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{3F20C1F7-1942-B744-A819-8484193C5493}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>用于表示当前</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -609,46 +1430,18 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>会在这些线程中运行，这样的好处的避免了线程过多而出现的资源竞争的问题，这种配置非常适用于单服务器有多个进程的时候，改为一个进程多个</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Scene</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>。</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>对客户端的网络协议。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -657,47 +1450,29 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ThreadPool</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>设置</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fantasy</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>是以</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -706,58 +1481,18 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>为一个单独的线程执行、但需要注意的情况下，如果设置了</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ThreadPool</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>最好</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>其他</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>为单位的，所以网络协议是在</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -766,74 +1501,14 @@
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>不要设置为</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>MultiThread</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>了，因为资源抢占的问题，如果这个</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Scene</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>不是一个长时间运行的可以不用考虑这个</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>。</t>
-        </r>
-        <r>
-          <rPr>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>里设置。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
@@ -842,9 +1517,164 @@
           <t xml:space="preserve">
 </t>
         </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>比如做一个注册的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Scene</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>，这里设置了协议类型和外网端口号、客户端就可以通过这个端口号来进行通讯。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>外网通讯的地址是在</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MachineConfig</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>里设置的、因为这个</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Scene</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>是关联到</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ServerConfig</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>下的，框架会自动根据</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ServerConfig</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>配置的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MachineConfigId</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>来找到外网通讯地址</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{9A11BAE7-14DA-C243-8D3C-B1ED33D8BE47}">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{FA3F8434-3E06-8244-81BA-65B867130E76}">
       <text>
         <r>
           <rPr>
@@ -854,284 +1684,31 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>用来表示这个</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Scene</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>是什么类型，这样可以在框架中的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>OnSceneCreate</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>的事件中根据</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SceneType</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>来添加不同的组件，而达到不同</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Scene</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>功能不一样的效果。</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>比如鉴权</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Scene</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>和聊天</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Scene</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>、通过这个就可以知道当前这个</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Scene</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>是什么类型了，这样在创建的时候根据不同类型添加不同的组件就可以实现每个的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Scene</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>功能了。</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>添加</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SceneType</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>需要在</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SceneTypeConfig</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>工作簿里增加，当前表格下面的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft Tai Le"/>
-            <family val="34"/>
-          </rPr>
-          <t>SceneTypeConfig</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>工作簿</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
+          <t>用来表示监听的外网连接的端口号，这里不填写或填</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>0.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>表示不会建立监听，也就是不会接收到外网发送的消息</t>
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{3F20C1F7-1942-B744-A819-8484193C5493}">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{465906A4-8B2A-ED4E-8049-240213B8E865}">
       <text>
         <r>
           <rPr>
@@ -1141,300 +1718,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>用于表示当前</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Scene</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>对客户端的网络协议。</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Fantasy</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>是以</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Scene</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>为单位的，所以网络协议是在</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Scene</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>里设置。</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>比如做一个注册的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Scene</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>，这里设置了协议类型和外网端口号、客户端就可以通过这个端口号来进行通讯。</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>外网通讯的地址是在</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>MachineConfig</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>里设置的、因为这个</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Scene</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>是关联到</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ServerConfig</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>下的，框架会自动根据</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ServerConfig</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>配置的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>MachineConfigId</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>来找到外网通讯地址</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{FA3F8434-3E06-8244-81BA-65B867130E76}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>用来表示监听的外网连接的端口号，如果协议类型设置为</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>None</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>，这里不填写或填</t>
+          <t>用来表示监听的内部网络连接的端口号，这里不填写或填</t>
         </r>
         <r>
           <rPr>
@@ -1445,6 +1729,16 @@
             <charset val="1"/>
           </rPr>
           <t>0.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>表示不会建立监听，也就是不会接受内部网络发送的消息</t>
         </r>
       </text>
     </comment>
@@ -1507,7 +1801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1579,34 +1873,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>路由Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>uint</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntityId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Gate</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>KCP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Copy</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1616,10 +1890,6 @@
   </si>
   <si>
     <t>Copy调度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServerConfigId</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1691,14 +1961,30 @@
   <si>
     <t>MultiThread</t>
   </si>
+  <si>
+    <t>进程Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessConfigId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnerPort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网端口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KCP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -1801,14 +2087,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft Tai Le"/>
-      <family val="34"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1879,7 +2164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1907,28 +2192,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1960,7 +2224,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>736599</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2277,21 +2541,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" customWidth="1"/>
-    <col min="7" max="7" width="162.5" customWidth="1"/>
-    <col min="8" max="8" width="83.83203125" customWidth="1"/>
-    <col min="9" max="9" width="84.1640625" customWidth="1"/>
-    <col min="10" max="11" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="6" max="6" width="162.5" customWidth="1"/>
+    <col min="7" max="7" width="84.33203125" customWidth="1"/>
+    <col min="8" max="8" width="120" customWidth="1"/>
+    <col min="9" max="10" width="21.5" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2303,31 +2567,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L1" s="2">
         <v>0</v>
@@ -2338,7 +2602,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="10"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2355,7 +2619,7 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5">
@@ -2364,10 +2628,10 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -2390,29 +2654,29 @@
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>26</v>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>10</v>
@@ -2425,29 +2689,29 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>25</v>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>15</v>
@@ -2457,9 +2721,9 @@
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2473,32 +2737,31 @@
         <v>1</v>
       </c>
       <c r="C7" s="7">
+        <v>1001</v>
+      </c>
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="14">
-        <f>_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E7,16),_xlfn.BITLSHIFT(C7,34)))</f>
-        <v>17247043584</v>
-      </c>
       <c r="E7" s="7">
-        <v>1025</v>
-      </c>
-      <c r="F7" s="7">
         <v>1</v>
       </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="G7" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="I7" s="7">
+        <v>20000</v>
       </c>
       <c r="J7" s="7">
-        <v>20000</v>
+        <v>11001</v>
       </c>
       <c r="K7" s="7">
-        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(H7,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G7,SceneTypeConfig!$B$3:$B$90000,0))</f>
         <v>1</v>
       </c>
       <c r="L7" s="7" t="s">
@@ -2511,33 +2774,31 @@
         <v>2</v>
       </c>
       <c r="C8" s="7">
-        <f>C7+1</f>
-        <v>2</v>
-      </c>
-      <c r="D8" s="14">
-        <f>_xlfn.BITXOR(0,_xlfn.BITXOR(_xlfn.BITLSHIFT(E8,16),_xlfn.BITLSHIFT(C8,34)))</f>
-        <v>34494021632</v>
+        <v>1002</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>2049</v>
-      </c>
-      <c r="F8" s="7">
         <v>1</v>
       </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>28</v>
+      <c r="I8" s="7">
+        <v>20001</v>
       </c>
       <c r="J8" s="7">
-        <v>20001</v>
+        <v>11002</v>
       </c>
       <c r="K8" s="7">
-        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(H8,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G8,SceneTypeConfig!$B$3:$B$90000,0))</f>
         <v>3</v>
       </c>
       <c r="L8" s="7" t="s">
@@ -2548,10 +2809,10 @@
   <dataConsolidate link="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I8" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
-      <formula1>"None,KCP,TCP"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
+      <formula1>"None,KCP,TCP,WebSocket"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G8" xr:uid="{E694B3B1-9993-5844-8944-44E4396FB6D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F8" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2566,7 +2827,7 @@
           <x14:formula1>
             <xm:f>SceneTypeConfig!$B$3:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>H7:H8</xm:sqref>
+          <xm:sqref>G7:G8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2579,7 +2840,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2595,7 +2856,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
@@ -2606,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
@@ -2617,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -2640,10 +2901,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
@@ -2664,10 +2925,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="16">
@@ -2676,10 +2937,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="16">
@@ -2688,10 +2949,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/New/Examples/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C0B03C-59FA-7640-8164-44DC69B0313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C45EDB-F11A-D748-8A72-AB0C1F79ECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -1801,7 +1801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1922,9 +1922,6 @@
   </si>
   <si>
     <t>Authentication</t>
-  </si>
-  <si>
-    <t>Authentication</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1979,6 +1976,17 @@
   </si>
   <si>
     <t>KCP</t>
+  </si>
+  <si>
+    <t>Addressable</t>
+  </si>
+  <si>
+    <t>Addressable管理中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2541,8 +2549,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2576,10 +2584,10 @@
         <v>22</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -2591,7 +2599,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="2">
         <v>0</v>
@@ -2655,13 +2663,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>30</v>
@@ -2673,10 +2681,10 @@
         <v>9</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>10</v>
@@ -2690,16 +2698,16 @@
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>13</v>
@@ -2708,7 +2716,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>29</v>
@@ -2746,26 +2754,22 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="7">
-        <v>20000</v>
-      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="7">
         <v>11001</v>
       </c>
       <c r="K7" s="7">
         <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G7,SceneTypeConfig!$B$3:$B$90000,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2783,16 +2787,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="7">
-        <v>20001</v>
+        <v>20000</v>
       </c>
       <c r="J8" s="7">
         <v>11002</v>
@@ -2802,7 +2806,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +2844,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2878,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C45EDB-F11A-D748-8A72-AB0C1F79ECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1B392E-CC52-3D45-9329-CC97D606EF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,47 +169,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>WorldConfigId</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> * </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>1000</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>+1</t>
+          <t>WorldConfigId * 1000 +1</t>
         </r>
         <r>
           <rPr>
@@ -240,27 +200,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>2:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">  </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Id</t>
+          <t>2:  Id</t>
         </r>
         <r>
           <rPr>
@@ -280,47 +220,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>WorldConfigId</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> * </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>1000</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>+255</t>
+          <t>WorldConfigId * 1000 +255</t>
         </r>
         <r>
           <rPr>
@@ -435,17 +335,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Process</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Config</t>
+          <t>ProcessConfig</t>
         </r>
         <r>
           <rPr>
@@ -465,17 +355,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Id</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Id
 </t>
         </r>
         <r>
@@ -738,17 +618,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Process</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ConfigId</t>
+          <t>ProcessConfigId</t>
         </r>
         <r>
           <rPr>
@@ -861,7 +731,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>设置</t>
         </r>
@@ -873,7 +742,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -885,7 +753,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>为一个单独的线程执行、但需要注意的情况下，如果设置了</t>
         </r>
@@ -897,7 +764,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>ThreadPool</t>
         </r>
@@ -909,7 +775,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>最好其他</t>
         </r>
@@ -921,7 +786,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -933,7 +797,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>不要设置为</t>
         </r>
@@ -945,7 +808,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>MultiThread</t>
         </r>
@@ -957,7 +819,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>了，因为资源抢占的问题，如果这个</t>
         </r>
@@ -969,7 +830,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -981,7 +841,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>不是一个长时间运行的可以不用考虑这个</t>
         </r>
@@ -992,7 +851,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>。</t>
         </r>
@@ -1038,7 +896,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>根据当前服务器的</t>
         </r>
@@ -1050,7 +907,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>CPU</t>
         </r>
@@ -1062,7 +918,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>核心数创建线程，</t>
         </r>
@@ -1074,7 +929,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1086,7 +940,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>会在这些线程中运行，这样的好处的避免了线程过多而出现的资源竞争的问题，这种配置非常适用于单服务器有多个进程的时候，改为一个进程多个</t>
         </r>
@@ -1098,7 +951,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1110,7 +962,6 @@
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>。</t>
         </r>
@@ -1801,7 +1652,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1988,12 +1839,19 @@
     <t>Gate中心</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map服务器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2055,23 +1913,6 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2252,6 +2093,61 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7526866" y="2959100"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FB842E-2F77-ED42-B5FA-1AA3563557A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991599" y="3344333"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2547,10 +2443,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2809,14 +2705,47 @@
         <v>48</v>
       </c>
     </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="16">
+      <c r="B9" s="6">
+        <f>B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1003</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7">
+        <v>11003</v>
+      </c>
+      <c r="K9" s="7">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G9,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>4</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H9" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
       <formula1>"None,KCP,TCP,WebSocket"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F8" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F9" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2831,7 +2760,7 @@
           <x14:formula1>
             <xm:f>SceneTypeConfig!$B$3:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G8</xm:sqref>
+          <xm:sqref>G7:G9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1B392E-CC52-3D45-9329-CC97D606EF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48E799F-8ECE-9247-8D2A-2C5896EC4196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -410,13 +410,23 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>表</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+          <t>表（</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>不能为空）</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FFFF0000"/>
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
@@ -1851,7 +1861,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1943,6 +1953,13 @@
       <color rgb="FF000000"/>
       <name val="Microsoft Tai Le"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2446,7 +2463,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48E799F-8ECE-9247-8D2A-2C5896EC4196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B056B3-67B2-804C-B73C-CDD2E753FDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1662,7 +1662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1854,6 +1854,17 @@
   </si>
   <si>
     <t>Map服务器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat服务器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2198,6 +2209,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2C5344-9C68-FC45-9954-7B545347C977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991599" y="3547533"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2460,10 +2526,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2755,14 +2821,47 @@
         <v>50</v>
       </c>
     </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="16">
+      <c r="B10" s="6">
+        <f>B9+1</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
+        <v>11004</v>
+      </c>
+      <c r="K10" s="7">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G10,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>8</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H9" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H10" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
       <formula1>"None,KCP,TCP,WebSocket"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F9" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F10" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2777,7 +2876,7 @@
           <x14:formula1>
             <xm:f>SceneTypeConfig!$B$3:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G9</xm:sqref>
+          <xm:sqref>G7:G10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2787,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4E656C-FB27-224C-BBD7-96AC8FAF4A12}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2859,7 +2958,7 @@
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
       <c r="A6" s="7">
-        <f t="shared" ref="A6:A9" si="0">A5+1</f>
+        <f t="shared" ref="A6:A10" si="0">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2903,6 +3002,18 @@
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="16">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B056B3-67B2-804C-B73C-CDD2E753FDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB51F0C2-94D7-F44A-9968-B9D5D88CA370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -1662,7 +1662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1812,9 +1812,6 @@
   <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gate</t>
   </si>
   <si>
     <t>MultiThread</t>
@@ -2528,8 +2525,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2642,7 +2639,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
@@ -2660,7 +2657,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>33</v>
@@ -2677,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>32</v>
@@ -2695,7 +2692,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>29</v>
@@ -2733,10 +2730,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2748,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2766,13 +2763,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
         <v>20000</v>
@@ -2785,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2803,10 +2800,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2818,7 +2815,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2836,10 +2833,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2851,7 +2848,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3010,10 +3007,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB51F0C2-94D7-F44A-9968-B9D5D88CA370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0AA5C9-815A-2A4A-80AA-3B1404287FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2526,7 +2526,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0AA5C9-815A-2A4A-80AA-3B1404287FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAEA889-F14D-2D4A-8E0F-D908E3787885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2526,7 +2526,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAEA889-F14D-2D4A-8E0F-D908E3787885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB51F0C2-94D7-F44A-9968-B9D5D88CA370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2526,7 +2526,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB51F0C2-94D7-F44A-9968-B9D5D88CA370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAEA889-F14D-2D4A-8E0F-D908E3787885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2526,7 +2526,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAEA889-F14D-2D4A-8E0F-D908E3787885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF1C93F-A9F1-CF41-9304-09147046A207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1662,7 +1662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1863,6 +1863,9 @@
   <si>
     <t>Chat服务器</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
   </si>
 </sst>
 </file>
@@ -2526,7 +2529,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2838,8 +2841,12 @@
       <c r="G10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="7">
+        <v>20001</v>
+      </c>
       <c r="J10" s="7">
         <v>11004</v>
       </c>
@@ -2854,12 +2861,15 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H10" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
-      <formula1>"None,KCP,TCP,WebSocket"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
+      <formula1>"None,KCP,TCP,WebSocket,HTTP"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F10" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7 H8 H9" xr:uid="{35C1228B-5182-B84B-936F-0B9A7C0489CA}">
+      <formula1>"None,KCP,TCP,WebSocket,HTTP"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF1C93F-A9F1-CF41-9304-09147046A207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9434E4-4FB3-1E46-93EB-E3491E2D1888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -1662,7 +1662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1863,9 +1863,6 @@
   <si>
     <t>Chat服务器</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP</t>
   </si>
 </sst>
 </file>
@@ -2528,8 +2525,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2841,12 +2838,8 @@
       <c r="G10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="7">
-        <v>20001</v>
-      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="7">
         <v>11004</v>
       </c>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9434E4-4FB3-1E46-93EB-E3491E2D1888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9ED98D-2F29-C346-856C-927D11422878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1662,7 +1662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1863,6 +1863,9 @@
   <si>
     <t>Chat服务器</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
   </si>
 </sst>
 </file>
@@ -2526,7 +2529,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2838,8 +2841,12 @@
       <c r="G10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="7">
+        <v>20001</v>
+      </c>
       <c r="J10" s="7">
         <v>11004</v>
       </c>
@@ -2854,15 +2861,12 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H10" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
       <formula1>"None,KCP,TCP,WebSocket,HTTP"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F10" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7 H8 H9" xr:uid="{35C1228B-5182-B84B-936F-0B9A7C0489CA}">
-      <formula1>"None,KCP,TCP,WebSocket,HTTP"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9ED98D-2F29-C346-856C-927D11422878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA0EE65-381D-9A46-BF76-3AF2421B0D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1662,7 +1662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1863,9 +1863,6 @@
   <si>
     <t>Chat服务器</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2526,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2841,12 +2838,8 @@
       <c r="G10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="7">
-        <v>20001</v>
-      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="7">
         <v>11004</v>
       </c>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA0EE65-381D-9A46-BF76-3AF2421B0D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E283AA-BDBA-2846-8E9E-B23F2ADC6DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1662,7 +1662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2261,6 +2261,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9165CA5D-C765-874B-B7DB-992FBE8A50B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991599" y="3547533"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2523,10 +2578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2851,14 +2906,47 @@
         <v>52</v>
       </c>
     </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="16">
+      <c r="B11" s="6">
+        <f>B10+1</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7">
+        <v>11005</v>
+      </c>
+      <c r="K11" s="7">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G11,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>4</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H10" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H11" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
       <formula1>"None,KCP,TCP,WebSocket,HTTP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F10" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F11" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2873,7 +2961,7 @@
           <x14:formula1>
             <xm:f>SceneTypeConfig!$B$3:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G10</xm:sqref>
+          <xm:sqref>G7:G11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4316753-7AE4-4F4F-ABB4-6A2517206885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F4A0FB-CA6E-DE4A-878F-F8C09CA1ACC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fantasy/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F4A0FB-CA6E-DE4A-878F-F8C09CA1ACC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7038450A-AA08-E543-9A7A-60E8E8224BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -51,7 +51,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>由于改表格使用了公式。</t>
         </r>
@@ -61,7 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -72,7 +72,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>所以不要改动列的位置。</t>
         </r>
@@ -81,7 +81,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -96,7 +96,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -106,7 +106,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>计算规则</t>
         </r>
@@ -116,7 +116,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -127,7 +127,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -137,7 +137,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>：</t>
         </r>
@@ -147,7 +147,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -157,7 +157,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>不能小于当前</t>
         </r>
@@ -167,7 +167,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>WorldConfigId * 1000 +1</t>
         </r>
@@ -177,7 +177,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>。</t>
         </r>
@@ -187,7 +187,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -198,7 +198,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>2:  Id</t>
         </r>
@@ -208,7 +208,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>不能大于当前</t>
         </r>
@@ -218,7 +218,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>WorldConfigId * 1000 +255</t>
         </r>
@@ -228,7 +228,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>。</t>
         </r>
@@ -238,7 +238,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -249,7 +249,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
@@ -259,7 +259,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>：</t>
         </r>
@@ -269,7 +269,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -279,7 +279,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>必须在</t>
         </r>
@@ -289,7 +289,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -299,7 +299,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>和</t>
         </r>
@@ -309,7 +309,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -319,7 +319,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>条件之间。</t>
         </r>
@@ -333,7 +333,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>ProcessConfig</t>
         </r>
@@ -343,7 +343,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>表的</t>
         </r>
@@ -353,7 +353,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Id
 </t>
@@ -364,7 +364,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>一个进程下有多少个</t>
         </r>
@@ -374,7 +374,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -388,7 +388,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>关联</t>
         </r>
@@ -398,7 +398,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>WorldConfig</t>
         </r>
@@ -408,7 +408,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>表（</t>
         </r>
@@ -418,7 +418,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>不能为空）</t>
         </r>
@@ -428,7 +428,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -439,7 +439,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>用于表示这个</t>
         </r>
@@ -449,7 +449,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -459,7 +459,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>属于哪个世界，</t>
         </r>
@@ -469,7 +469,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Fantasy</t>
         </r>
@@ -479,7 +479,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>里的世界可以理解为游戏的一个区。</t>
         </r>
@@ -489,7 +489,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -500,7 +500,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>这样就可以设置出一个进程下同时运行多个区，也是一个压缩服务器成本的一个手段</t>
         </r>
@@ -514,7 +514,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>用于配置</t>
         </r>
@@ -524,7 +524,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -534,7 +534,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>在框架中运行的方式：</t>
         </r>
@@ -544,7 +544,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -566,7 +566,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>:</t>
         </r>
@@ -576,7 +576,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>设置</t>
         </r>
@@ -586,7 +586,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -596,7 +596,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>在当前进程的主线程中运行、如果多个</t>
         </r>
@@ -606,7 +606,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -616,7 +616,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>在同一个</t>
         </r>
@@ -626,7 +626,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>ProcessConfigId</t>
         </r>
@@ -636,7 +636,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>下，表示这些</t>
         </r>
@@ -646,7 +646,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -656,7 +656,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>都是在同一个主线程中运行。如果想提升效率可以配置多个进程（也就是</t>
         </r>
@@ -666,7 +666,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Process</t>
         </r>
@@ -676,7 +676,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>）分别对应多个</t>
         </r>
@@ -686,7 +686,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -696,7 +696,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>，这样设置就是多进程单线程的配置方法。</t>
         </r>
@@ -706,7 +706,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -985,7 +985,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>用来表示这个</t>
         </r>
@@ -995,7 +995,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1005,7 +1005,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>是什么类型，这样可以在框架中的</t>
         </r>
@@ -1015,7 +1015,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>OnSceneCreate</t>
         </r>
@@ -1025,7 +1025,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>的事件中根据</t>
         </r>
@@ -1035,7 +1035,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneType</t>
         </r>
@@ -1045,7 +1045,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>来添加不同的组件，而达到不同</t>
         </r>
@@ -1055,7 +1055,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1065,7 +1065,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>功能不一样的效果。</t>
         </r>
@@ -1075,7 +1075,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1086,7 +1086,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>比如鉴权</t>
         </r>
@@ -1096,7 +1096,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1106,7 +1106,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>和聊天</t>
         </r>
@@ -1116,7 +1116,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1126,7 +1126,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>、通过这个就可以知道当前这个</t>
         </r>
@@ -1136,7 +1136,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1146,7 +1146,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>是什么类型了，这样在创建的时候根据不同类型添加不同的组件就可以实现每个的</t>
         </r>
@@ -1156,7 +1156,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1166,7 +1166,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>功能了。</t>
         </r>
@@ -1176,7 +1176,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1187,7 +1187,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>添加</t>
         </r>
@@ -1197,7 +1197,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneType</t>
         </r>
@@ -1207,7 +1207,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>需要在</t>
         </r>
@@ -1217,7 +1217,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneTypeConfig</t>
         </r>
@@ -1227,7 +1227,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>工作簿里增加，当前表格下面的</t>
         </r>
@@ -1272,7 +1272,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>用于表示当前</t>
         </r>
@@ -1282,7 +1282,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1292,7 +1292,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>对客户端的网络协议。</t>
         </r>
@@ -1302,7 +1302,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1313,7 +1313,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Fantasy</t>
         </r>
@@ -1323,7 +1323,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>是以</t>
         </r>
@@ -1333,7 +1333,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1343,7 +1343,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>为单位的，所以网络协议是在</t>
         </r>
@@ -1353,7 +1353,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1363,7 +1363,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>里设置。</t>
         </r>
@@ -1373,7 +1373,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1384,7 +1384,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>比如做一个注册的</t>
         </r>
@@ -1394,7 +1394,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1404,7 +1404,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>，这里设置了协议类型和外网端口号、客户端就可以通过这个端口号来进行通讯。</t>
         </r>
@@ -1414,7 +1414,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1425,7 +1425,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>外网通讯的地址是在</t>
         </r>
@@ -1435,7 +1435,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>MachineConfig</t>
         </r>
@@ -1445,7 +1445,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>里设置的、因为这个</t>
         </r>
@@ -1455,7 +1455,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1465,7 +1465,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>是关联到</t>
         </r>
@@ -1475,7 +1475,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>ServerConfig</t>
         </r>
@@ -1485,7 +1485,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>下的，框架会自动根据</t>
         </r>
@@ -1543,7 +1543,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>用来表示监听的外网连接的端口号，这里不填写或填</t>
         </r>
@@ -1553,7 +1553,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>0.</t>
         </r>
@@ -1563,7 +1563,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>表示不会建立监听，也就是不会接收到外网发送的消息</t>
         </r>
@@ -1577,7 +1577,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>用来表示监听的内部网络连接的端口号，这里不填写或填</t>
         </r>
@@ -1587,7 +1587,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>0.</t>
         </r>
@@ -1597,7 +1597,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>表示不会建立监听，也就是不会接受内部网络发送的消息</t>
         </r>
@@ -1611,7 +1611,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>根据</t>
         </r>
@@ -1621,7 +1621,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneTypeString</t>
         </r>
@@ -1631,7 +1631,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>列的值使用公式自动生成的，不需要手动修改。如果要修改在</t>
         </r>
@@ -1641,7 +1641,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneTypeString</t>
         </r>
@@ -1651,7 +1651,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <charset val="134"/>
           </rPr>
           <t>列选择就可以了</t>
         </r>
@@ -1920,17 +1920,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1967,7 +1961,13 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2581,7 +2581,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fantasy/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7038450A-AA08-E543-9A7A-60E8E8224BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D2CD9-D702-224B-8BB2-A9E65D21109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fantasy/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D2CD9-D702-224B-8BB2-A9E65D21109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0170E9-21CC-9249-9BFD-565D4B3F0C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,6 +51,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>由于改表格使用了公式。</t>
@@ -61,6 +62,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -72,6 +74,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>所以不要改动列的位置。</t>
@@ -81,6 +84,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -96,97 +100,62 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Id</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>计算规则</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Id</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不能小于当前</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WorldConfigId * 1000 +1</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>。</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>你在框架没有设置或已经设置</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ID</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>生成规则是</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>IdFactoryType.World</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必须严格按照下面的规则执行：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -198,36 +167,62 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2:  Id</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不能大于当前</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WorldConfigId * 1000 +255</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Id</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不能小于当前</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>WorldConfigId * 1000 +1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>。</t>
@@ -238,6 +233,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -249,6 +245,63 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2:  Id</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不能大于当前</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>WorldConfigId * 1000 +255</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>3</t>
@@ -259,6 +312,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>：</t>
@@ -269,6 +323,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Id</t>
@@ -279,6 +334,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>必须在</t>
@@ -289,6 +345,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>1</t>
@@ -299,6 +356,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>和</t>
@@ -309,6 +367,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>2</t>
@@ -319,6 +378,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>条件之间。</t>
@@ -333,6 +393,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>ProcessConfig</t>
@@ -343,6 +404,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>表的</t>
@@ -353,6 +415,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Id
@@ -364,6 +427,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>一个进程下有多少个</t>
@@ -374,6 +438,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -388,6 +453,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>关联</t>
@@ -398,6 +464,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>WorldConfig</t>
@@ -408,6 +475,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>表（</t>
@@ -418,6 +486,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>不能为空）</t>
@@ -428,6 +497,7 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -439,6 +509,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>用于表示这个</t>
@@ -449,6 +520,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -459,6 +531,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>属于哪个世界，</t>
@@ -469,6 +542,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Fantasy</t>
@@ -479,6 +553,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>里的世界可以理解为游戏的一个区。</t>
@@ -489,6 +564,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -500,6 +576,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>这样就可以设置出一个进程下同时运行多个区，也是一个压缩服务器成本的一个手段</t>
@@ -514,6 +591,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>用于配置</t>
@@ -524,6 +602,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -534,6 +613,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>在框架中运行的方式：</t>
@@ -544,6 +624,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -566,6 +647,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>:</t>
@@ -576,6 +658,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>设置</t>
@@ -586,6 +669,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -596,6 +680,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>在当前进程的主线程中运行、如果多个</t>
@@ -606,6 +691,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -616,6 +702,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>在同一个</t>
@@ -626,6 +713,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>ProcessConfigId</t>
@@ -636,6 +724,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>下，表示这些</t>
@@ -646,6 +735,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -656,6 +746,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>都是在同一个主线程中运行。如果想提升效率可以配置多个进程（也就是</t>
@@ -666,6 +757,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Process</t>
@@ -676,6 +768,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>）分别对应多个</t>
@@ -686,6 +779,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -696,6 +790,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>，这样设置就是多进程单线程的配置方法。</t>
@@ -706,6 +801,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -985,6 +1081,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>用来表示这个</t>
@@ -995,6 +1092,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -1005,6 +1103,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>是什么类型，这样可以在框架中的</t>
@@ -1015,6 +1114,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>OnSceneCreate</t>
@@ -1025,6 +1125,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>的事件中根据</t>
@@ -1035,6 +1136,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>SceneType</t>
@@ -1045,6 +1147,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>来添加不同的组件，而达到不同</t>
@@ -1055,6 +1158,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -1065,6 +1169,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>功能不一样的效果。</t>
@@ -1075,6 +1180,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1086,6 +1192,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>比如鉴权</t>
@@ -1096,6 +1203,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -1106,6 +1214,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>和聊天</t>
@@ -1116,6 +1225,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -1126,6 +1236,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>、通过这个就可以知道当前这个</t>
@@ -1136,6 +1247,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -1146,6 +1258,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>是什么类型了，这样在创建的时候根据不同类型添加不同的组件就可以实现每个的</t>
@@ -1156,6 +1269,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -1166,6 +1280,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>功能了。</t>
@@ -1176,6 +1291,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1187,6 +1303,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>添加</t>
@@ -1197,6 +1314,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>SceneType</t>
@@ -1207,6 +1325,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>需要在</t>
@@ -1217,6 +1336,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>SceneTypeConfig</t>
@@ -1227,6 +1347,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>工作簿里增加，当前表格下面的</t>
@@ -1272,6 +1393,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>用于表示当前</t>
@@ -1282,6 +1404,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -1292,6 +1415,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>对客户端的网络协议。</t>
@@ -1302,6 +1426,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1313,6 +1438,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Fantasy</t>
@@ -1323,6 +1449,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>是以</t>
@@ -1333,6 +1460,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -1343,6 +1471,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>为单位的，所以网络协议是在</t>
@@ -1353,6 +1482,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -1363,6 +1493,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>里设置。</t>
@@ -1373,6 +1504,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1384,6 +1516,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>比如做一个注册的</t>
@@ -1394,6 +1527,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -1404,6 +1538,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>，这里设置了协议类型和外网端口号、客户端就可以通过这个端口号来进行通讯。</t>
@@ -1414,6 +1549,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1425,6 +1561,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>外网通讯的地址是在</t>
@@ -1435,6 +1572,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>MachineConfig</t>
@@ -1445,6 +1583,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>里设置的、因为这个</t>
@@ -1455,6 +1594,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Scene</t>
@@ -1465,6 +1605,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>是关联到</t>
@@ -1475,6 +1616,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>ServerConfig</t>
@@ -1485,6 +1627,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>下的，框架会自动根据</t>
@@ -1543,6 +1686,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>用来表示监听的外网连接的端口号，这里不填写或填</t>
@@ -1553,6 +1697,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>0.</t>
@@ -1563,6 +1708,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>表示不会建立监听，也就是不会接收到外网发送的消息</t>
@@ -1577,6 +1723,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>用来表示监听的内部网络连接的端口号，这里不填写或填</t>
@@ -1587,6 +1734,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>0.</t>
@@ -1597,6 +1745,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>表示不会建立监听，也就是不会接受内部网络发送的消息</t>
@@ -1611,6 +1760,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>根据</t>
@@ -1621,6 +1771,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>SceneTypeString</t>
@@ -1631,6 +1782,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>列的值使用公式自动生成的，不需要手动修改。如果要修改在</t>
@@ -1641,6 +1793,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>SceneTypeString</t>
@@ -1651,6 +1804,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>列选择就可以了</t>
@@ -1923,13 +2077,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1959,14 +2106,24 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2580,8 +2737,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fantasy/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0170E9-21CC-9249-9BFD-565D4B3F0C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E8B533-3A93-5D43-A349-DBD7A3A29C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2737,8 +2737,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fantasy/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E8B533-3A93-5D43-A349-DBD7A3A29C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E05AEA-29DA-8E4B-8483-915A1283EA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2738,7 +2738,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fantasy/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E05AEA-29DA-8E4B-8483-915A1283EA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73166A79-91EF-5F44-910F-4487EB0A8B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1956,10 +1956,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>SceneRuntimeType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Scene运行类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2017,6 +2013,10 @@
   </si>
   <si>
     <t>KCP</t>
+  </si>
+  <si>
+    <t>SceneRuntimeMode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2737,8 +2737,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2772,10 +2772,10 @@
         <v>22</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -2851,13 +2851,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>30</v>
@@ -2869,7 +2869,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>33</v>
@@ -2886,13 +2886,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>35</v>
@@ -2904,7 +2904,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>29</v>
@@ -2942,10 +2942,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2957,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2975,13 +2975,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="7">
         <v>20000</v>
@@ -2994,7 +2994,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="16">
@@ -3012,10 +3012,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -3027,7 +3027,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="16">
@@ -3045,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -3060,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="16">
@@ -3078,10 +3078,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -3093,7 +3093,7 @@
         <v>4</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3252,10 +3252,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Config/Excel/Server/SceneConfig.xlsx
+++ b/examples/Config/Excel/Server/SceneConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fantasy/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73166A79-91EF-5F44-910F-4487EB0A8B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBE33DF-2EDF-B641-8EB3-2A9952DC7A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2737,8 +2737,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
